--- a/biology/Zoologie/Correlophus_sarasinorum/Correlophus_sarasinorum.xlsx
+++ b/biology/Zoologie/Correlophus_sarasinorum/Correlophus_sarasinorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Correlophus sarasinorum est une espèce de geckos de la famille des Diplodactylidae[1]. Longtemps classée dans le genre Rhacodactylus elle a été déplacée dans ce genre recréé pour l'occasion en 2012, avec plusieurs autres espèces.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Correlophus sarasinorum est une espèce de geckos de la famille des Diplodactylidae. Longtemps classée dans le genre Rhacodactylus elle a été déplacée dans ce genre recréé pour l'occasion en 2012, avec plusieurs autres espèces.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Sud de la Nouvelle-Calédonie[1]. Elle se rencontre à Dumbéa, au Mont-Dore et à Yaté[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Sud de la Nouvelle-Calédonie. Elle se rencontre à Dumbéa, au Mont-Dore et à Yaté.
 Elle vit dans les arbres de la forêt tropicale humide.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce gecko est relativement grand, de couleur pâle ou brun-marron, il est tacheté et présente une ligne le long du dos. Une marque en V se trouve également sur la nuque.
 Les mâles matures présentent un renflement prononcé au niveau de la base de la queue, logement des hémipénis.
@@ -576,7 +592,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce gecko mange principalement des insectes et des araignées, mais également des fruits.
 </t>
@@ -607,7 +625,9 @@
           <t>Éthologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien qu'arboricole, cette espèce se déplace également au sol pour y chasser.
 </t>
@@ -638,7 +658,9 @@
           <t>Variation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il n'y a pas de sous-espèce décrites, mais on observe une forte variabilité en taille dans cette espèce.
 </t>
@@ -669,9 +691,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Paul Benedict Sarasin et de son cousin Karl Friedrich Sarasin[3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Paul Benedict Sarasin et de son cousin Karl Friedrich Sarasin.
 </t>
         </is>
       </c>
@@ -700,7 +724,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Roux, 1913 : Les reptiles de la Nouvelle-Calédonie et des îles Loyalty. Nova Caledonia, Recherches scientifiques en Nouvelle-Calédonie et aux Iles Loyalty. Zoologie. vol. 1, L. 2, Sarasin &amp; Roux, C.W. Kreidel’s Verlag, Wiesbaden, vol. 1, p. 79-160 (texte intégral).</t>
         </is>
